--- a/project_1/part_1/Test_scenarios.xlsx
+++ b/project_1/part_1/Test_scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\qa-testing-portfolio\project_1\part_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7459E2-ADFD-487C-832D-F94D7CB8F827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0360167C-F618-48C8-BA03-01ADC71AE180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="10452" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login_test_scenarios" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,6 +197,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -210,13 +216,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -522,7 +529,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
@@ -534,7 +541,7 @@
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -546,7 +553,7 @@
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
@@ -558,7 +565,7 @@
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
@@ -570,7 +577,7 @@
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
@@ -582,7 +589,7 @@
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
@@ -594,7 +601,7 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
@@ -606,7 +613,7 @@
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
@@ -618,7 +625,7 @@
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
@@ -630,7 +637,7 @@
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
@@ -642,7 +649,7 @@
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
@@ -654,7 +661,7 @@
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
@@ -666,7 +673,7 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
@@ -678,7 +685,7 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
@@ -690,7 +697,7 @@
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B16" t="s">
@@ -702,7 +709,7 @@
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B17" t="s">
@@ -714,7 +721,7 @@
       <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B18" t="s">
